--- a/public/assets/default/SampleCsv.xlsx
+++ b/public/assets/default/SampleCsv.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23906"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB8E747-989A-46F9-997A-DD5AF2302C0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E9FA577-5AFB-4599-BA80-DD5B7087A1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,10 @@
     <t>course_description</t>
   </si>
   <si>
-    <t>course_start_date</t>
+    <t>course_fees</t>
   </si>
   <si>
-    <t>course_end_date</t>
+    <t>course_duration</t>
   </si>
 </sst>
 </file>
@@ -392,10 +392,16 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:D1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
